--- a/NABApplication/TestInput/TestInput.xlsx
+++ b/NABApplication/TestInput/TestInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dania.joseph\Desktop\CODING TEST\automation lead\Dania\master\NABApplication\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE6F6B-8848-41D5-8280-FC87494F3EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB2BC4-B58A-4558-ABF5-AFD9A5402D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactDeatils" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TestCase</t>
   </si>
@@ -52,15 +52,15 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>0430292988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +102,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,8 +428,8 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>430292988</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
